--- a/Compass.Wpf/PackingListCeiling.xlsx
+++ b/Compass.Wpf/PackingListCeiling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5027ABDB-5C34-4EF9-9490-F6D98F5411C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653C917F-0EC0-4034-B658-1F99198E1713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ceiling" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,21 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Ceiling!$A:$J</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Ceiling!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -58,11 +69,6 @@
 Remark</t>
   </si>
   <si>
-    <t>托盘号
-(Pallet No.)</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Packing Type:</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -96,6 +102,11 @@
   <si>
     <t>天花装箱清单(Ceiling Packing List)</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号
+(Prod No.)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -248,8 +259,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{D3F3DE5B-8D77-4CB6-BECC-42A6910BD2C5}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,7 +544,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -553,7 +564,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -567,7 +578,7 @@
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -577,7 +588,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" s="6">
         <v>45091</v>
@@ -585,7 +596,7 @@
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -595,7 +606,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="7"/>
     </row>
@@ -613,16 +624,16 @@
     </row>
     <row r="5" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>0</v>

--- a/Compass.Wpf/PackingListCeiling.xlsx
+++ b/Compass.Wpf/PackingListCeiling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653C917F-0EC0-4034-B658-1F99198E1713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D024D9F4-0EC2-4099-8D29-FAD6967B0D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ceiling" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L项目名称：</oddHeader>
     <oddFooter>&amp;C第 &amp;P 页，共 &amp;N 页</oddFooter>
